--- a/DAND/P1/stroopdata.csv.xlsx
+++ b/DAND/P1/stroopdata.csv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhren/Dropbox (Personal)/class/Udacity/DS/P1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhren/Documents/workspace/github/Udacity/DAND/P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -362,9 +362,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -559,7 +561,7 @@
         <v>-17.055000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>12.13</v>
       </c>
@@ -571,7 +573,7 @@
         <v>-10.028</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>18.495000000000001</v>
       </c>
@@ -583,7 +585,7 @@
         <v>-6.6439999999999984</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>10.638999999999999</v>
       </c>
@@ -595,7 +597,7 @@
         <v>-9.7899999999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>11.343999999999999</v>
       </c>
@@ -607,7 +609,7 @@
         <v>-6.0810000000000013</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>12.369</v>
       </c>
@@ -619,7 +621,7 @@
         <v>-21.918999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>12.944000000000001</v>
       </c>
@@ -631,7 +633,7 @@
         <v>-10.949999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>14.233000000000001</v>
       </c>
@@ -643,7 +645,7 @@
         <v>-3.7270000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>19.71</v>
       </c>
@@ -655,7 +657,7 @@
         <v>-2.347999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>16.004000000000001</v>
       </c>
@@ -667,7 +669,7 @@
         <v>-5.1529999999999987</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" ref="A26:B26" si="1">AVERAGE(A2:A25)</f>
         <v>14.051125000000001</v>
@@ -683,8 +685,12 @@
         <f>AVERAGE(D2:D25)</f>
         <v>-7.964791666666664</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26">
+        <f>D26/(D28/SQRT(24))</f>
+        <v>-8.0207069441099534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" ref="A27:B27" si="2">MEDIAN(A2:A25)</f>
         <v>14.3565</v>
@@ -697,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <f t="shared" ref="A28:B28" si="3">STDEV(A2:A25)</f>
         <v>3.559357957645187</v>
